--- a/Data/ROY Data/roy_99_00.xlsx
+++ b/Data/ROY Data/roy_99_00.xlsx
@@ -106,7 +106,7 @@
     <t>CLE</t>
   </si>
   <si>
-    <t>1998-99</t>
+    <t>1999-00</t>
   </si>
 </sst>
 </file>
